--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value226.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value226.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.034771335741906</v>
+        <v>1.254102945327759</v>
       </c>
       <c r="B1">
-        <v>1.073425941125046</v>
+        <v>2.212313175201416</v>
       </c>
       <c r="C1">
-        <v>1.008686760879546</v>
+        <v>4.334763526916504</v>
       </c>
       <c r="D1">
-        <v>1.17260197304796</v>
+        <v>3.036949396133423</v>
       </c>
       <c r="E1">
-        <v>1.574724560015019</v>
+        <v>1.040203452110291</v>
       </c>
     </row>
   </sheetData>
